--- a/stats_change_all.xlsx
+++ b/stats_change_all.xlsx
@@ -918,7 +918,9 @@
       <c r="I14" t="n">
         <v>0.1015419449793613</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.001100416319998572</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -984,7 +986,9 @@
       <c r="I16" t="n">
         <v>0.0001784161009842416</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.007245729848038801</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1016,7 +1020,9 @@
       <c r="I17" t="n">
         <v>0.0003872870051742307</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.005405834880872684</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1048,7 +1054,9 @@
       <c r="I18" t="n">
         <v>5.272432248897293e-06</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.01531352637265548</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1080,7 +1088,9 @@
       <c r="I19" t="n">
         <v>0.01444598561522989</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.01252308576568375</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1384,7 +1394,9 @@
       <c r="I28" t="n">
         <v>4.157755899615157e-19</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10.28813543811893</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
